--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.1536323942571</v>
+        <v>27.25040933333333</v>
       </c>
       <c r="N2">
-        <v>25.1536323942571</v>
+        <v>81.751228</v>
       </c>
       <c r="O2">
-        <v>0.4615335486812511</v>
+        <v>0.455635031912059</v>
       </c>
       <c r="P2">
-        <v>0.4615335486812511</v>
+        <v>0.4556350319120589</v>
       </c>
       <c r="Q2">
-        <v>187.7123723577223</v>
+        <v>204.7812398060867</v>
       </c>
       <c r="R2">
-        <v>187.7123723577223</v>
+        <v>1843.03115825478</v>
       </c>
       <c r="S2">
-        <v>0.4615335486812511</v>
+        <v>0.4520571361778226</v>
       </c>
       <c r="T2">
-        <v>0.4615335486812511</v>
+        <v>0.4520571361778226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H3">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.9676925388148</v>
+        <v>14.03147833333333</v>
       </c>
       <c r="N3">
-        <v>13.9676925388148</v>
+        <v>42.094435</v>
       </c>
       <c r="O3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="P3">
-        <v>0.2562873863816051</v>
+        <v>0.2346105337346748</v>
       </c>
       <c r="Q3">
-        <v>104.2357883636241</v>
+        <v>105.4436832219417</v>
       </c>
       <c r="R3">
-        <v>104.2357883636241</v>
+        <v>948.993148997475</v>
       </c>
       <c r="S3">
-        <v>0.2562873863816051</v>
+        <v>0.2327682433727296</v>
       </c>
       <c r="T3">
-        <v>0.2562873863816051</v>
+        <v>0.2327682433727296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H4">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.291143333577943</v>
+        <v>0.3744183333333334</v>
       </c>
       <c r="N4">
-        <v>0.291143333577943</v>
+        <v>1.123255</v>
       </c>
       <c r="O4">
-        <v>0.005342068048660686</v>
+        <v>0.006260387033823881</v>
       </c>
       <c r="P4">
-        <v>0.005342068048660686</v>
+        <v>0.00626038703382388</v>
       </c>
       <c r="Q4">
-        <v>2.172696371857965</v>
+        <v>2.813677019241667</v>
       </c>
       <c r="R4">
-        <v>2.172696371857965</v>
+        <v>25.323093173175</v>
       </c>
       <c r="S4">
-        <v>0.005342068048660686</v>
+        <v>0.006211227047224541</v>
       </c>
       <c r="T4">
-        <v>0.005342068048660686</v>
+        <v>0.00621122704722454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H5">
+        <v>22.544385</v>
+      </c>
+      <c r="I5">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J5">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.426419</v>
+      </c>
+      <c r="O5">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P5">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q5">
+        <v>1.068150456368333</v>
+      </c>
+      <c r="R5">
+        <v>9.613354107314999</v>
+      </c>
+      <c r="S5">
+        <v>0.00235795542975588</v>
+      </c>
+      <c r="T5">
+        <v>0.00235795542975588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H6">
+        <v>22.544385</v>
+      </c>
+      <c r="I6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>18.009092</v>
+      </c>
+      <c r="N6">
+        <v>54.027276</v>
+      </c>
+      <c r="O6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P6">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q6">
+        <v>135.33463451614</v>
+      </c>
+      <c r="R6">
+        <v>1218.01171064526</v>
+      </c>
+      <c r="S6">
+        <v>0.2987528904648235</v>
+      </c>
+      <c r="T6">
+        <v>0.2987528904648235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.178432</v>
+      </c>
+      <c r="I7">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J7">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>27.25040933333333</v>
+      </c>
+      <c r="N7">
+        <v>81.751228</v>
+      </c>
+      <c r="O7">
+        <v>0.455635031912059</v>
+      </c>
+      <c r="P7">
+        <v>0.4556350319120589</v>
+      </c>
+      <c r="Q7">
+        <v>1.620781679388444</v>
+      </c>
+      <c r="R7">
+        <v>14.587035114496</v>
+      </c>
+      <c r="S7">
+        <v>0.003577895734236318</v>
+      </c>
+      <c r="T7">
+        <v>0.003577895734236319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.178432</v>
+      </c>
+      <c r="I8">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J8">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.03147833333333</v>
+      </c>
+      <c r="N8">
+        <v>42.094435</v>
+      </c>
+      <c r="O8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="P8">
+        <v>0.2346105337346748</v>
+      </c>
+      <c r="Q8">
+        <v>0.8345549139911111</v>
+      </c>
+      <c r="R8">
+        <v>7.510994225920001</v>
+      </c>
+      <c r="S8">
+        <v>0.001842290361945242</v>
+      </c>
+      <c r="T8">
+        <v>0.001842290361945242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H5">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="N5">
-        <v>15.0876487153747</v>
-      </c>
-      <c r="O5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="P5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="Q5">
-        <v>112.5936122971066</v>
-      </c>
-      <c r="R5">
-        <v>112.5936122971066</v>
-      </c>
-      <c r="S5">
-        <v>0.2768369968884832</v>
-      </c>
-      <c r="T5">
-        <v>0.2768369968884832</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.178432</v>
+      </c>
+      <c r="I9">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J9">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3744183333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.123255</v>
+      </c>
+      <c r="O9">
+        <v>0.006260387033823881</v>
+      </c>
+      <c r="P9">
+        <v>0.00626038703382388</v>
+      </c>
+      <c r="Q9">
+        <v>0.02226940401777778</v>
+      </c>
+      <c r="R9">
+        <v>0.20042463616</v>
+      </c>
+      <c r="S9">
+        <v>4.915998659934033E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.915998659934034E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178432</v>
+      </c>
+      <c r="I10">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J10">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1421396666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.426419</v>
+      </c>
+      <c r="O10">
+        <v>0.002376617934997971</v>
+      </c>
+      <c r="P10">
+        <v>0.00237661793499797</v>
+      </c>
+      <c r="Q10">
+        <v>0.008454088334222221</v>
+      </c>
+      <c r="R10">
+        <v>0.076086795008</v>
+      </c>
+      <c r="S10">
+        <v>1.866250524209027E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.866250524209027E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178432</v>
+      </c>
+      <c r="I11">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J11">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>18.009092</v>
+      </c>
+      <c r="N11">
+        <v>54.027276</v>
+      </c>
+      <c r="O11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="P11">
+        <v>0.3011174293844444</v>
+      </c>
+      <c r="Q11">
+        <v>1.071132767914667</v>
+      </c>
+      <c r="R11">
+        <v>9.640194911232001</v>
+      </c>
+      <c r="S11">
+        <v>0.002364538919620978</v>
+      </c>
+      <c r="T11">
+        <v>0.002364538919620978</v>
       </c>
     </row>
   </sheetData>
